--- a/Género/Panamá/Localiza_Panamá 2010.xlsx
+++ b/Género/Panamá/Localiza_Panamá 2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\Panamá\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA28834-77F3-412A-8D02-F8C8BB290A01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D263BF34-E910-41E2-A071-E7B5A9136694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A6AB7F5-D0FB-4CFB-92E5-C7FB4DC85617}"/>
   </bookViews>

--- a/Género/Panamá/Localiza_Panamá 2010.xlsx
+++ b/Género/Panamá/Localiza_Panamá 2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\Panamá\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\Panamá\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093FA2E-CD0E-4061-94ED-59DD7EF1BB91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABFA7C5-186B-4853-BAD3-2A9ECE960057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A6AB7F5-D0FB-4CFB-92E5-C7FB4DC85617}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8A6AB7F5-D0FB-4CFB-92E5-C7FB4DC85617}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2394,18 +2394,18 @@
   <dimension ref="A1:O632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10201</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10203</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10204</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10206</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10207</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10208</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10209</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10210</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10301</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10302</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10303</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10304</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10305</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10306</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>14565</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20101</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>47568</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20102</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>47568</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20103</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>47568</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20104</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>47568</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20105</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>47568</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20201</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20202</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20203</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20204</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20205</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20206</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20207</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20208</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20209</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20210</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20301</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20302</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20303</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20304</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20305</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20306</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>27840</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20401</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>20402</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20403</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20404</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20405</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20406</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>20225</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20501</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20502</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20503</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20504</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20505</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20601</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20602</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20603</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20604</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20605</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20606</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20607</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20608</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20609</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20610</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30101</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30102</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>30103</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30104</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30105</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>30107</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>30107</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>30108</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>30109</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>30110</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>30111</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30112</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>30113</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>30114</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>30201</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>30202</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>30203</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>30204</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>30205</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>30206</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>30207</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30301</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>11998</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>30302</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>11998</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>30303</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>11998</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>30304</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>11998</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>30305</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>11998</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>30401</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>30402</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>30403</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>30404</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30405</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>30501</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>30502</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>30503</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>30504</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>30505</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>30506</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>30507</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>30508</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>40101</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>40102</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>40103</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>40104</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>40105</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>40106</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>40107</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>40108</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>40109</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>16966</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>40201</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>56924</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>40202</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>56924</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>40203</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>56924</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>40204</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>56924</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>40205</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>56924</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>40301</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>40302</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>40303</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>40304</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>40305</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>40306</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>40307</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>40308</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>40401</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>40402</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>40403</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>40404</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>40405</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>40406</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>40501</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40502</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>40503</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>41402</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>21343</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>40505</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>40506</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40507</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>40508</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>40509</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40510</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>40511</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>40513</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>40601</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>40602</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>40603</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>40604</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>40605</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>40606</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>40607</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>40608</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>40609</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>40610</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>161845</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>40701</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>40702</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>40703</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>40704</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>40705</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>40706</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>40707</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>40708</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>26105</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>40801</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>10135</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>40802</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>10135</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>40803</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>10135</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>40804</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>10135</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>40805</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>10135</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>40901</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>40902</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>40903</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>40904</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>40905</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>41001</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>41002</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>41003</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>41004</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>41005</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>41006</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>41007</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>41008</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>41101</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>41102</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>41103</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>41104</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>41105</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>41201</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>41202</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>41203</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>41204</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>41205</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>7815</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>41301</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>41302</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>41303</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>41304</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>41305</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>41306</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>41307</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>41308</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>41309</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>50101</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>50102</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>50103</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>50104</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>50105</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>50106</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>50109</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>50110</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>50111</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>50112</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>50201</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>50202</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>50203</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>50204</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>50205</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>50206</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>50207</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>50208</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>50209</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>21093</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>60101</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>53394</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>60102</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>53394</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>60103</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>53394</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>60104</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>53394</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>60105</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>53394</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>60201</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>60202</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>60203</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>60204</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>60205</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>60206</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>60207</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>60301</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>60302</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>60303</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>60304</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>60305</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>60306</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>60307</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>60308</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>60309</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>60401</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>60402</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>60403</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>60404</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>60405</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>60406</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>60407</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>60501</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>60502</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>60503</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>60504</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>60505</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>60506</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>60507</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>60601</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>60602</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>60603</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>60604</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>60605</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>60606</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>60607</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>60608</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>12397</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>60701</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>60702</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>60703</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>60704</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>60705</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>70101</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>70102</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>70103</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>70104</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>70105</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>70106</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>70107</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>70108</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>70109</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>70110</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>70201</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>70202</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>70203</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>70204</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>70205</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>70206</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>70207</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>70208</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>70209</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>70210</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>70211</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>70212</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>70213</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>70214</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>70215</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>70216</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>70217</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>70218</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>70219</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>70220</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>70221</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>70222</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>70223</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>70224</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>28110</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>70301</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>70302</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>70303</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>70304</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>70305</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>70306</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>70307</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>70308</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>70309</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>70310</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>70311</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>70312</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>70313</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>70314</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>70401</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>70402</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>70403</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>70404</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>70405</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>70406</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>70407</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>70408</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>70409</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>70410</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>70411</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>70501</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>70502</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>70503</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>70504</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>70505</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>70601</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>70602</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>70603</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>70604</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>70605</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>70701</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>70702</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>70703</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>70704</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>70705</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>70706</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>70707</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>70708</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>70709</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>70710</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>70711</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>130103</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>41008</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>130105</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>130106</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>130107</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>130108</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>80201</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>80202</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>80203</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>80204</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>80205</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>80206</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>130301</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>130302</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>130303</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>130304</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>70705</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>130308</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>130309</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>130311</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>130312</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>30114</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>242977</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>130401</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>130402</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>130403</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>20202</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>41101</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>130408</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>130409</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>130410</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>80501</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>80502</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>80501</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>80504</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>80505</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>80506</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>80507</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>80508</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>56380</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>80601</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>80602</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>80603</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>80604</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>80605</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>130701</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>130703</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>130704</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>130705</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>20605</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>93425</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>130707</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>130708</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>130709</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>130710</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>130711</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>130712</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>130714</v>
       </c>
@@ -21111,7 +21111,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>130716</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>130717</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>20209</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>59470</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>80801</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>80802</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>80803</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>80804</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>80805</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>80806</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>80807</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>80808</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>80809</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>80810</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>80811</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>80812</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>80813</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>80814</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>80815</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>80816</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>80817</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>80818</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>80819</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>80820</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>80821</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>80822</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>80823</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>1074510</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>130901</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>130902</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>90407</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>120508</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>130905</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>90206</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>130907</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>130908</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>81001</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>81002</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>81003</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>81004</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>81005</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>81006</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>81007</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>81008</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>81009</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>357034</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>81101</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>81102</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>81103</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>90101</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>10798</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>90102</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>10798</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>90103</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>10798</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>90104</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>10798</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>90105</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>10798</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>90201</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>90202</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>90203</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>90204</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>90205</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>90206</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>90207</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>90208</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>90209</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>90210</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>90211</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>90212</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>90301</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>90302</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>90303</v>
       </c>
@@ -24213,7 +24213,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>90304</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>90305</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>90306</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>90307</v>
       </c>
@@ -24401,7 +24401,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>90308</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>17138</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>90401</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>90402</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>90403</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>90404</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>90405</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>90406</v>
       </c>
@@ -24730,7 +24730,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>90501</v>
       </c>
@@ -24777,7 +24777,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>90502</v>
       </c>
@@ -24824,7 +24824,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>90503</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>90504</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>90505</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>90506</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>90507</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>90508</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>90509</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>90510</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>90511</v>
       </c>
@@ -25247,7 +25247,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>90512</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>17568</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>90601</v>
       </c>
@@ -25341,7 +25341,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>90602</v>
       </c>
@@ -25388,7 +25388,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>90603</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>90604</v>
       </c>
@@ -25482,7 +25482,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>90605</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>90606</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>90607</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>90608</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>90701</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>90702</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>90703</v>
       </c>
@@ -25811,7 +25811,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>90704</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>90705</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>90801</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>90802</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>90803</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>90804</v>
       </c>
@@ -26093,7 +26093,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>90805</v>
       </c>
@@ -26140,7 +26140,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>90806</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>90901</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>90902</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>90903</v>
       </c>
@@ -26328,7 +26328,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>90904</v>
       </c>
@@ -26375,7 +26375,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>90905</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>90906</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>90907</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>90908</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>91001</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>91002</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>91003</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>91004</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>91005</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>91006</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>91007</v>
       </c>
@@ -26892,7 +26892,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>91008</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>91009</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>91010</v>
       </c>
@@ -27033,7 +27033,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>91011</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>91012</v>
       </c>
@@ -27127,7 +27127,7 @@
         <v>94960</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>91101</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>91102</v>
       </c>
@@ -27221,7 +27221,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>91103</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>91104</v>
       </c>
@@ -27315,7 +27315,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>91105</v>
       </c>
@@ -27362,7 +27362,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>91106</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>91107</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>91108</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>91109</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>91110</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>28317</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>91201</v>
       </c>
@@ -27644,7 +27644,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>91202</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>91203</v>
       </c>
@@ -27738,7 +27738,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>91204</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>91205</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>100101</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>100102</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>100103</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>100104</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>40451</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>110101</v>
       </c>
@@ -28067,7 +28067,7 @@
         <v>9411</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>110102</v>
       </c>
@@ -28114,7 +28114,7 @@
         <v>9411</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>110103</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>9411</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>110201</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>110202</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>120101</v>
       </c>
@@ -28302,7 +28302,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>120102</v>
       </c>
@@ -28349,7 +28349,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>120103</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>120104</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>120105</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>120106</v>
       </c>
@@ -28537,7 +28537,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>120107</v>
       </c>
@@ -28584,7 +28584,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>120108</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>30971</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>120201</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>120202</v>
       </c>
@@ -28725,7 +28725,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>120203</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>120204</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>120205</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>120206</v>
       </c>
@@ -28913,7 +28913,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>120207</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>120208</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>120301</v>
       </c>
@@ -29054,7 +29054,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>120302</v>
       </c>
@@ -29101,7 +29101,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>120303</v>
       </c>
@@ -29148,7 +29148,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>120304</v>
       </c>
@@ -29195,7 +29195,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>120305</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>120306</v>
       </c>
@@ -29289,7 +29289,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>120307</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>120308</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>120309</v>
       </c>
@@ -29430,7 +29430,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>120310</v>
       </c>
@@ -29477,7 +29477,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>120311</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>120312</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>120401</v>
       </c>
@@ -29618,7 +29618,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>120402</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>120403</v>
       </c>
@@ -29712,7 +29712,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>120404</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>120405</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>120501</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>120502</v>
       </c>
@@ -29900,7 +29900,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>120503</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>120504</v>
       </c>
@@ -29994,7 +29994,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>120505</v>
       </c>
@@ -30041,7 +30041,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>120506</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>120507</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>120508</v>
       </c>
@@ -30182,7 +30182,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>120509</v>
       </c>
@@ -30229,7 +30229,7 @@
         <v>16737</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>120601</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>23035</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>120604</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>23035</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>120605</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>23035</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>120606</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>23035</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>120607</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>23035</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>120804</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>22834</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>120701</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>20315</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>120702</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>20315</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>120705</v>
       </c>
@@ -30652,7 +30652,7 @@
         <v>20315</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>120706</v>
       </c>
@@ -30699,7 +30699,7 @@
         <v>20315</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>10401</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>10406</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>10404</v>
       </c>
@@ -30840,7 +30840,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>10405</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>29229</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>30601</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>41401</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>21343</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>50307</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>50308</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>50313</v>
       </c>
@@ -31122,7 +31122,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>50314</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>50315</v>
       </c>
@@ -31216,7 +31216,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>50316</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>130101</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>130102</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>288522</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>130305</v>
       </c>
@@ -31404,7 +31404,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>130306</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>130310</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>130405</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>130406</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>130411</v>
       </c>
@@ -31639,7 +31639,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>130702</v>
       </c>
@@ -31686,7 +31686,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>130713</v>
       </c>
@@ -31733,7 +31733,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>130715</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>193709</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>130909</v>
       </c>
@@ -31827,7 +31827,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>120802</v>
       </c>
@@ -31874,7 +31874,7 @@
         <v>22834</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>120803</v>
       </c>
@@ -31921,7 +31921,7 @@
         <v>22834</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>120805</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>22834</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>90902</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>16510</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>120903</v>
       </c>
@@ -32062,7 +32062,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>120905</v>
       </c>
